--- a/transport_demand.xlsx
+++ b/transport_demand.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E353"/>
+  <dimension ref="A1:E265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +391,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -404,7 +404,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>14116.1</v>
+        <v>85533.39999999999</v>
       </c>
     </row>
     <row r="3">
@@ -414,7 +414,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -427,7 +427,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>2682.94</v>
+        <v>26724.24</v>
       </c>
     </row>
     <row r="4">
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>4082.4</v>
+        <v>37199</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>107.378</v>
+        <v>2679.042</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>998.735</v>
+        <v>50716.57</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>3276.82</v>
+        <v>21372.72</v>
       </c>
     </row>
     <row r="8">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>30093.7</v>
+        <v>92887</v>
       </c>
     </row>
     <row r="9">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>7518.33</v>
+        <v>58684.4</v>
       </c>
     </row>
     <row r="10">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>2690.14</v>
+        <v>26996.8</v>
       </c>
     </row>
     <row r="11">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>961.2000000000001</v>
+        <v>7401.11</v>
       </c>
     </row>
     <row r="12">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>12848.9</v>
+        <v>54187.16</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>42099.3</v>
+        <v>46124.3</v>
       </c>
     </row>
     <row r="14">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>7881.3</v>
+        <v>21987.453585</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>12055</v>
+        <v>28115.1</v>
       </c>
     </row>
     <row r="16">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E16">
-        <v>315.411</v>
+        <v>2535.385</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>3055.97</v>
+        <v>98385.54700000001</v>
       </c>
     </row>
     <row r="18">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>8868.48</v>
+        <v>9116.969999999999</v>
       </c>
     </row>
     <row r="19">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>41972.39999999999</v>
+        <v>56767.5</v>
       </c>
     </row>
     <row r="20">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>20718.71</v>
+        <v>34858.4</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>7902.7</v>
+        <v>19830.8</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>2824.4</v>
+        <v>8521.620000000001</v>
       </c>
     </row>
     <row r="23">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>37744.5</v>
+        <v>131954.86102739</v>
       </c>
     </row>
     <row r="24">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>59066.3</v>
+        <v>114731</v>
       </c>
     </row>
     <row r="25">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>12630.82</v>
+        <v>20949.259422</v>
       </c>
     </row>
     <row r="26">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>17314.4</v>
+        <v>46238.4</v>
       </c>
     </row>
     <row r="27">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>435.918</v>
+        <v>6093.190000000001</v>
       </c>
     </row>
     <row r="28">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>6307.87</v>
+        <v>84235.6005</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>14613.86</v>
+        <v>50316.58</v>
       </c>
     </row>
     <row r="30">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="E30">
-        <v>55492.10000000001</v>
+        <v>47264.10000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>32884.53</v>
+        <v>66852.97</v>
       </c>
     </row>
     <row r="32">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>10920.7</v>
+        <v>33391.4</v>
       </c>
     </row>
     <row r="33">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>3903.3</v>
+        <v>10311.8</v>
       </c>
     </row>
     <row r="34">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>2005</v>
+        <v>2025</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>52160</v>
+        <v>151853.751117863</v>
       </c>
     </row>
     <row r="35">
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="E35">
-        <v>100564</v>
+        <v>131467</v>
       </c>
     </row>
     <row r="36">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="E36">
-        <v>21106.46</v>
+        <v>26097.361312</v>
       </c>
     </row>
     <row r="37">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="E37">
-        <v>18662.1</v>
+        <v>85388.10000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E38">
-        <v>766.037</v>
+        <v>10799.09</v>
       </c>
     </row>
     <row r="39">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>14415.34</v>
+        <v>63588.7983</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>42199.10000000001</v>
+        <v>69654.7</v>
       </c>
     </row>
     <row r="41">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>60052.6</v>
+        <v>41908.2</v>
       </c>
     </row>
     <row r="42">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="E42">
-        <v>67616.5</v>
+        <v>72668.19</v>
       </c>
     </row>
     <row r="43">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="E43">
-        <v>17922.7</v>
+        <v>41849.3</v>
       </c>
     </row>
     <row r="44">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>6405.5</v>
+        <v>12317.5</v>
       </c>
     </row>
     <row r="45">
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>2010</v>
+        <v>2030</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="E45">
-        <v>35177</v>
+        <v>220751.0170880319</v>
       </c>
     </row>
     <row r="46">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E46">
-        <v>85533.39999999999</v>
+        <v>102512</v>
       </c>
     </row>
     <row r="47">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>26724.24</v>
+        <v>26864.324885</v>
       </c>
     </row>
     <row r="48">
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="E48">
-        <v>37199</v>
+        <v>129024</v>
       </c>
     </row>
     <row r="49">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="E49">
-        <v>2679.042</v>
+        <v>18399.16</v>
       </c>
     </row>
     <row r="50">
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="E50">
-        <v>50716.57</v>
+        <v>69629.2469</v>
       </c>
     </row>
     <row r="51">
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="E51">
-        <v>21372.72</v>
+        <v>83745.10000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="E52">
-        <v>92887</v>
+        <v>37997.9</v>
       </c>
     </row>
     <row r="53">
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="E53">
-        <v>58684.4</v>
+        <v>73867.89999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="E54">
-        <v>26996.8</v>
+        <v>48601.4</v>
       </c>
     </row>
     <row r="55">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>7401.11</v>
+        <v>14510.7</v>
       </c>
     </row>
     <row r="56">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>2015</v>
+        <v>2035</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E56">
-        <v>54187.16</v>
+        <v>322472.1007429873</v>
       </c>
     </row>
     <row r="57">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="E57">
-        <v>46124.3</v>
+        <v>69950.60000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="E58">
-        <v>21987.453585</v>
+        <v>18878.2750951</v>
       </c>
     </row>
     <row r="59">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="E59">
-        <v>28115.1</v>
+        <v>185633</v>
       </c>
     </row>
     <row r="60">
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>2535.385</v>
+        <v>27922.24</v>
       </c>
     </row>
     <row r="61">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E61">
-        <v>98385.54700000001</v>
+        <v>88564.976</v>
       </c>
     </row>
     <row r="62">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="E62">
-        <v>9116.969999999999</v>
+        <v>100652</v>
       </c>
     </row>
     <row r="63">
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="E63">
-        <v>56767.5</v>
+        <v>33345.9</v>
       </c>
     </row>
     <row r="64">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>34858.4</v>
+        <v>71619.2</v>
       </c>
     </row>
     <row r="65">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E65">
-        <v>19830.8</v>
+        <v>56379.4</v>
       </c>
     </row>
     <row r="66">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>8521.620000000001</v>
+        <v>16811.4</v>
       </c>
     </row>
     <row r="67">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>131954.86102739</v>
+        <v>445634.3071402903</v>
       </c>
     </row>
     <row r="68">
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>114730</v>
+        <v>45522.1</v>
       </c>
     </row>
     <row r="69">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         </is>
       </c>
       <c r="E69">
-        <v>20949.279422</v>
+        <v>10061.07692</v>
       </c>
     </row>
     <row r="70">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>46238.3</v>
+        <v>249941</v>
       </c>
     </row>
     <row r="71">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="E71">
-        <v>6093.18</v>
+        <v>36288.2</v>
       </c>
     </row>
     <row r="72">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>84235.6206</v>
+        <v>110414.52</v>
       </c>
     </row>
     <row r="73">
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="E73">
-        <v>50508.72</v>
+        <v>122161</v>
       </c>
     </row>
     <row r="74">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>47264.10000000001</v>
+        <v>28730.1</v>
       </c>
     </row>
     <row r="75">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="E75">
-        <v>66852.96000000001</v>
+        <v>67330.2</v>
       </c>
     </row>
     <row r="76">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>33518.7</v>
+        <v>49189.7</v>
       </c>
     </row>
     <row r="77">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="E77">
-        <v>10311.8</v>
+        <v>17864.1</v>
       </c>
     </row>
     <row r="78">
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>2025</v>
+        <v>2045</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>151498.9111118343</v>
+        <v>601748.2819324066</v>
       </c>
     </row>
     <row r="79">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="E79">
-        <v>131468</v>
+        <v>27732.1</v>
       </c>
     </row>
     <row r="80">
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="E80">
-        <v>26097.401312</v>
+        <v>4737.50635</v>
       </c>
     </row>
     <row r="81">
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E81">
-        <v>85388.10000000001</v>
+        <v>320735</v>
       </c>
     </row>
     <row r="82">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="E82">
-        <v>10799.09</v>
+        <v>11070.7</v>
       </c>
     </row>
     <row r="83">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="E83">
-        <v>63588.8084</v>
+        <v>146050.418005</v>
       </c>
     </row>
     <row r="84">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         </is>
       </c>
       <c r="E84">
-        <v>69178.60000000001</v>
+        <v>140377</v>
       </c>
     </row>
     <row r="85">
@@ -2300,7 +2300,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="E85">
-        <v>41908.2</v>
+        <v>24348.24</v>
       </c>
     </row>
     <row r="86">
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>72668.2</v>
+        <v>61721</v>
       </c>
     </row>
     <row r="87">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         </is>
       </c>
       <c r="E87">
-        <v>41563.1</v>
+        <v>1387.91</v>
       </c>
     </row>
     <row r="88">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="E88">
-        <v>12317.5</v>
+        <v>7080.41</v>
       </c>
     </row>
     <row r="89">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="E89">
-        <v>221607.1770617221</v>
+        <v>824937.6840045156</v>
       </c>
     </row>
     <row r="90">
@@ -2415,7 +2415,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="E90">
-        <v>102512</v>
+        <v>18147.9</v>
       </c>
     </row>
     <row r="91">
@@ -2438,7 +2438,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="E91">
-        <v>26864.378385</v>
+        <v>2254.2057</v>
       </c>
     </row>
     <row r="92">
@@ -2461,7 +2461,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         </is>
       </c>
       <c r="E92">
-        <v>129025</v>
+        <v>344480</v>
       </c>
     </row>
     <row r="93">
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="E93">
-        <v>18399.52</v>
+        <v>944.6344</v>
       </c>
     </row>
     <row r="94">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="E94">
-        <v>69629.1969</v>
+        <v>189453.708195</v>
       </c>
     </row>
     <row r="95">
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2543,7 +2543,7 @@
         </is>
       </c>
       <c r="E95">
-        <v>80632.2</v>
+        <v>161193</v>
       </c>
     </row>
     <row r="96">
@@ -2553,7 +2553,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="E96">
-        <v>37997.9</v>
+        <v>21423.54</v>
       </c>
     </row>
     <row r="97">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="E97">
-        <v>73868</v>
+        <v>58193.1</v>
       </c>
     </row>
     <row r="98">
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E98">
-        <v>46797.1</v>
+        <v>9.983029999999999</v>
       </c>
     </row>
     <row r="99">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="E99">
-        <v>14510.9</v>
+        <v>1578.92</v>
       </c>
     </row>
     <row r="100">
@@ -2645,7 +2645,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>2035</v>
+        <v>2055</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="E100">
-        <v>328154.1607161076</v>
+        <v>1014636.101002375</v>
       </c>
     </row>
     <row r="101">
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="E101">
-        <v>69950.5</v>
+        <v>12130</v>
       </c>
     </row>
     <row r="102">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         </is>
       </c>
       <c r="E102">
-        <v>18878.3119951</v>
+        <v>1150.480274</v>
       </c>
     </row>
     <row r="103">
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="E103">
-        <v>185632</v>
+        <v>343176</v>
       </c>
     </row>
     <row r="104">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="E104">
-        <v>27923.19</v>
+        <v>413.3141</v>
       </c>
     </row>
     <row r="105">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="E105">
-        <v>88564.97900000001</v>
+        <v>227706.473389</v>
       </c>
     </row>
     <row r="106">
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E106">
-        <v>96048.60000000001</v>
+        <v>183910</v>
       </c>
     </row>
     <row r="107">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="E107">
-        <v>33345.9</v>
+        <v>18952.69</v>
       </c>
     </row>
     <row r="108">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="E108">
-        <v>71619.09999999999</v>
+        <v>54750.89999999999</v>
       </c>
     </row>
     <row r="109">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="E109">
-        <v>53807.5</v>
+        <v>1.40554</v>
       </c>
     </row>
     <row r="110">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="E110">
-        <v>16811.9</v>
+        <v>889.496</v>
       </c>
     </row>
     <row r="111">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>2040</v>
+        <v>2060</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="E111">
-        <v>454113.5531199022</v>
+        <v>1207121.018411855</v>
       </c>
     </row>
     <row r="112">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="E112">
-        <v>45522</v>
+        <v>8603.1</v>
       </c>
     </row>
     <row r="113">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="E113">
-        <v>10061.09287</v>
+        <v>652.8247388</v>
       </c>
     </row>
     <row r="114">
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         </is>
       </c>
       <c r="E114">
-        <v>249936</v>
+        <v>332634</v>
       </c>
     </row>
     <row r="115">
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="E115">
-        <v>36308.1</v>
+        <v>169.67517</v>
       </c>
     </row>
     <row r="116">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="E116">
-        <v>110417.09</v>
+        <v>248202.9</v>
       </c>
     </row>
     <row r="117">
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
       <c r="E117">
-        <v>118145</v>
+        <v>206244</v>
       </c>
     </row>
     <row r="118">
@@ -3059,7 +3059,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="E118">
-        <v>28730.2</v>
+        <v>17121.64</v>
       </c>
     </row>
     <row r="119">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="E119">
-        <v>67330.3</v>
+        <v>52266.2</v>
       </c>
     </row>
     <row r="120">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="E120">
-        <v>47670.3</v>
+        <v>0.175756</v>
       </c>
     </row>
     <row r="121">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="E121">
-        <v>17873</v>
+        <v>478.025</v>
       </c>
     </row>
     <row r="122">
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>2045</v>
+        <v>2065</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="E122">
-        <v>608533.9878259038</v>
+        <v>1398486.574090942</v>
       </c>
     </row>
     <row r="123">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="E123">
-        <v>27742.6</v>
+        <v>6567.59</v>
       </c>
     </row>
     <row r="124">
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E124">
-        <v>4737.73865</v>
+        <v>410.4443</v>
       </c>
     </row>
     <row r="125">
@@ -3220,7 +3220,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         </is>
       </c>
       <c r="E125">
-        <v>320547</v>
+        <v>322738</v>
       </c>
     </row>
     <row r="126">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="E126">
-        <v>11434.72</v>
+        <v>12.2031025</v>
       </c>
     </row>
     <row r="127">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="E127">
-        <v>146072.921535</v>
+        <v>245600</v>
       </c>
     </row>
     <row r="128">
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="E128">
-        <v>140439</v>
+        <v>226730</v>
       </c>
     </row>
     <row r="129">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="E129">
-        <v>24346.73</v>
+        <v>15762.55</v>
       </c>
     </row>
     <row r="130">
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="E130">
-        <v>61716.60000000001</v>
+        <v>50581.2</v>
       </c>
     </row>
     <row r="131">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E131">
-        <v>1477.56</v>
+        <v>0.00069661</v>
       </c>
     </row>
     <row r="132">
@@ -3381,7 +3381,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="E132">
-        <v>7217.53</v>
+        <v>83.08710000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>2050</v>
+        <v>2070</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3417,17 +3417,17 @@
         </is>
       </c>
       <c r="E133">
-        <v>824745.8760028242</v>
+        <v>1580428.797500202</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B134">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3440,17 +3440,17 @@
         </is>
       </c>
       <c r="E134">
-        <v>18147</v>
+        <v>85533.39999999999</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B135">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3463,17 +3463,17 @@
         </is>
       </c>
       <c r="E135">
-        <v>2254.39708</v>
+        <v>26724.24</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B136">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3486,17 +3486,17 @@
         </is>
       </c>
       <c r="E136">
-        <v>344463</v>
+        <v>37199</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B137">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3509,17 +3509,17 @@
         </is>
       </c>
       <c r="E137">
-        <v>947.2252</v>
+        <v>2679.042</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B138">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3532,17 +3532,17 @@
         </is>
       </c>
       <c r="E138">
-        <v>189469.303652</v>
+        <v>50716.57</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B139">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3555,17 +3555,17 @@
         </is>
       </c>
       <c r="E139">
-        <v>161209</v>
+        <v>21372.72</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B140">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3578,17 +3578,17 @@
         </is>
       </c>
       <c r="E140">
-        <v>21423.41</v>
+        <v>92887</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B141">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3601,17 +3601,17 @@
         </is>
       </c>
       <c r="E141">
-        <v>58192.7</v>
+        <v>58684.4</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B142">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3624,17 +3624,17 @@
         </is>
       </c>
       <c r="E142">
-        <v>10.0362</v>
+        <v>26996.8</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B143">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3647,17 +3647,17 @@
         </is>
       </c>
       <c r="E143">
-        <v>1581.58</v>
+        <v>7401.11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B144">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3670,17 +3670,17 @@
         </is>
       </c>
       <c r="E144">
-        <v>1014612.492000957</v>
+        <v>54187.16</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B145">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3693,17 +3693,17 @@
         </is>
       </c>
       <c r="E145">
-        <v>12129.9</v>
+        <v>46124.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B146">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3716,17 +3716,17 @@
         </is>
       </c>
       <c r="E146">
-        <v>1150.613718</v>
+        <v>21987.453585</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B147">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3739,17 +3739,17 @@
         </is>
       </c>
       <c r="E147">
-        <v>343175</v>
+        <v>28115.1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B148">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3762,17 +3762,17 @@
         </is>
       </c>
       <c r="E148">
-        <v>413.3521</v>
+        <v>2535.385</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B149">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3785,17 +3785,17 @@
         </is>
       </c>
       <c r="E149">
-        <v>227707.776881</v>
+        <v>98385.54700000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B150">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3808,17 +3808,17 @@
         </is>
       </c>
       <c r="E150">
-        <v>183904</v>
+        <v>9116.969999999999</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B151">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3831,17 +3831,17 @@
         </is>
       </c>
       <c r="E151">
-        <v>18952.69</v>
+        <v>56767.5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B152">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3854,17 +3854,17 @@
         </is>
       </c>
       <c r="E152">
-        <v>54751</v>
+        <v>34858.4</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B153">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3877,17 +3877,17 @@
         </is>
       </c>
       <c r="E153">
-        <v>1.40574</v>
+        <v>19830.8</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B154">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3900,17 +3900,17 @@
         </is>
       </c>
       <c r="E154">
-        <v>889.548</v>
+        <v>8521.620000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B155">
-        <v>2060</v>
+        <v>2020</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3923,17 +3923,17 @@
         </is>
       </c>
       <c r="E155">
-        <v>1207128.042299715</v>
+        <v>131954.86102739</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B156">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3946,17 +3946,17 @@
         </is>
       </c>
       <c r="E156">
-        <v>8603.129999999999</v>
+        <v>114732</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B157">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3969,17 +3969,17 @@
         </is>
       </c>
       <c r="E157">
-        <v>652.8521368</v>
+        <v>20948.829422</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B158">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3992,17 +3992,17 @@
         </is>
       </c>
       <c r="E158">
-        <v>332635</v>
+        <v>46238.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B159">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4015,17 +4015,17 @@
         </is>
       </c>
       <c r="E159">
-        <v>169.61726</v>
+        <v>6093.33</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B160">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4038,17 +4038,17 @@
         </is>
       </c>
       <c r="E160">
-        <v>248201.6</v>
+        <v>84235.53939999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B161">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4061,17 +4061,17 @@
         </is>
       </c>
       <c r="E161">
-        <v>206222</v>
+        <v>50314.39</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B162">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4084,17 +4084,17 @@
         </is>
       </c>
       <c r="E162">
-        <v>17121.64</v>
+        <v>47264</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B163">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4107,17 +4107,17 @@
         </is>
       </c>
       <c r="E163">
-        <v>52266.2</v>
+        <v>66852.93000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B164">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4130,17 +4130,17 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.175621</v>
+        <v>33392.6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B165">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4153,17 +4153,17 @@
         </is>
       </c>
       <c r="E165">
-        <v>477.92</v>
+        <v>10312</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B166">
-        <v>2065</v>
+        <v>2025</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4176,17 +4176,17 @@
         </is>
       </c>
       <c r="E166">
-        <v>1398515.85739837</v>
+        <v>151855.3411143151</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B167">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4199,17 +4199,17 @@
         </is>
       </c>
       <c r="E167">
-        <v>6567.58</v>
+        <v>131468</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B168">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4222,17 +4222,17 @@
         </is>
       </c>
       <c r="E168">
-        <v>410.4444</v>
+        <v>26097.011312</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B169">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4245,17 +4245,17 @@
         </is>
       </c>
       <c r="E169">
-        <v>322738</v>
+        <v>85388.5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B170">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4268,17 +4268,17 @@
         </is>
       </c>
       <c r="E170">
-        <v>12.2007971</v>
+        <v>10799.24</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B171">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4291,17 +4291,17 @@
         </is>
       </c>
       <c r="E171">
-        <v>245599.9</v>
+        <v>63588.5773</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B172">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4314,17 +4314,17 @@
         </is>
       </c>
       <c r="E172">
-        <v>226722</v>
+        <v>69654.89999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B173">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4337,17 +4337,17 @@
         </is>
       </c>
       <c r="E173">
-        <v>15762.55</v>
+        <v>41908.1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B174">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4360,17 +4360,17 @@
         </is>
       </c>
       <c r="E174">
-        <v>50581</v>
+        <v>72668.45</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B175">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4383,17 +4383,17 @@
         </is>
       </c>
       <c r="E175">
-        <v>0.000696335</v>
+        <v>41850.7</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B176">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4406,17 +4406,17 @@
         </is>
       </c>
       <c r="E176">
-        <v>83.077</v>
+        <v>12317.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Net_Zero</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="B177">
-        <v>2070</v>
+        <v>2030</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="E177">
-        <v>1580439.210132081</v>
+        <v>220749.7370766929</v>
       </c>
     </row>
     <row r="178">
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="E178">
-        <v>14116.1</v>
+        <v>102393</v>
       </c>
     </row>
     <row r="179">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4475,7 +4475,7 @@
         </is>
       </c>
       <c r="E179">
-        <v>2682.94</v>
+        <v>26840.563785</v>
       </c>
     </row>
     <row r="180">
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         </is>
       </c>
       <c r="E180">
-        <v>4082.4</v>
+        <v>128952</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E181">
-        <v>107.378</v>
+        <v>18399.54</v>
       </c>
     </row>
     <row r="182">
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="E182">
-        <v>998.735</v>
+        <v>69645.9866</v>
       </c>
     </row>
     <row r="183">
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         </is>
       </c>
       <c r="E183">
-        <v>3276.82</v>
+        <v>85067.7</v>
       </c>
     </row>
     <row r="184">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="E184">
-        <v>30093.7</v>
+        <v>38005.8</v>
       </c>
     </row>
     <row r="185">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         </is>
       </c>
       <c r="E185">
-        <v>7518.33</v>
+        <v>73775.7</v>
       </c>
     </row>
     <row r="186">
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="E186">
-        <v>2690.14</v>
+        <v>49843.2</v>
       </c>
     </row>
     <row r="187">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         </is>
       </c>
       <c r="E187">
-        <v>961.2000000000001</v>
+        <v>14509.2</v>
       </c>
     </row>
     <row r="188">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="E188">
-        <v>12848.9</v>
+        <v>319378.0807309314</v>
       </c>
     </row>
     <row r="189">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4705,7 +4705,7 @@
         </is>
       </c>
       <c r="E189">
-        <v>42099.3</v>
+        <v>69918.5</v>
       </c>
     </row>
     <row r="190">
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="E190">
-        <v>7881.3</v>
+        <v>18850.9361951</v>
       </c>
     </row>
     <row r="191">
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="E191">
-        <v>12055</v>
+        <v>185540</v>
       </c>
     </row>
     <row r="192">
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="E192">
-        <v>315.411</v>
+        <v>27919.27</v>
       </c>
     </row>
     <row r="193">
@@ -4784,7 +4784,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="E193">
-        <v>3055.97</v>
+        <v>88578.08</v>
       </c>
     </row>
     <row r="194">
@@ -4807,7 +4807,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="E194">
-        <v>8868.48</v>
+        <v>102674</v>
       </c>
     </row>
     <row r="195">
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4843,7 +4843,7 @@
         </is>
       </c>
       <c r="E195">
-        <v>41972.39999999999</v>
+        <v>33350.3</v>
       </c>
     </row>
     <row r="196">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         </is>
       </c>
       <c r="E196">
-        <v>20718.71</v>
+        <v>71558.2</v>
       </c>
     </row>
     <row r="197">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="E197">
-        <v>7902.7</v>
+        <v>57950.9</v>
       </c>
     </row>
     <row r="198">
@@ -4899,7 +4899,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="E198">
-        <v>2824.4</v>
+        <v>16808.4</v>
       </c>
     </row>
     <row r="199">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>1990</v>
+        <v>2040</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         </is>
       </c>
       <c r="E199">
-        <v>37744.5</v>
+        <v>441247.5881315177</v>
       </c>
     </row>
     <row r="200">
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="E200">
-        <v>59066.3</v>
+        <v>45509.3</v>
       </c>
     </row>
     <row r="201">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="E201">
-        <v>12630.82</v>
+        <v>10040.91423</v>
       </c>
     </row>
     <row r="202">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         </is>
       </c>
       <c r="E202">
-        <v>17314.4</v>
+        <v>249237</v>
       </c>
     </row>
     <row r="203">
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="E203">
-        <v>435.918</v>
+        <v>39155.2</v>
       </c>
     </row>
     <row r="204">
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="E204">
-        <v>6307.87</v>
+        <v>110777.91</v>
       </c>
     </row>
     <row r="205">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         </is>
       </c>
       <c r="E205">
-        <v>14613.86</v>
+        <v>125965</v>
       </c>
     </row>
     <row r="206">
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E206">
-        <v>55492.10000000001</v>
+        <v>28740.1</v>
       </c>
     </row>
     <row r="207">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         </is>
       </c>
       <c r="E207">
-        <v>32884.53</v>
+        <v>67315.5</v>
       </c>
     </row>
     <row r="208">
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="E208">
-        <v>10920.7</v>
+        <v>68672</v>
       </c>
     </row>
     <row r="209">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="E209">
-        <v>3903.3</v>
+        <v>19199.7</v>
       </c>
     </row>
     <row r="210">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>2005</v>
+        <v>2045</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="E210">
-        <v>52160</v>
+        <v>577715.2583293057</v>
       </c>
     </row>
     <row r="211">
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="E211">
-        <v>100564</v>
+        <v>29343.2</v>
       </c>
     </row>
     <row r="212">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="E212">
-        <v>21106.46</v>
+        <v>4771.63949</v>
       </c>
     </row>
     <row r="213">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="E213">
-        <v>18662.1</v>
+        <v>299906</v>
       </c>
     </row>
     <row r="214">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="E214">
-        <v>766.037</v>
+        <v>51234.89999999999</v>
       </c>
     </row>
     <row r="215">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         </is>
       </c>
       <c r="E215">
-        <v>14415.34</v>
+        <v>150160.74</v>
       </c>
     </row>
     <row r="216">
@@ -5313,7 +5313,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         </is>
       </c>
       <c r="E216">
-        <v>42199.10000000001</v>
+        <v>150860</v>
       </c>
     </row>
     <row r="217">
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="E217">
-        <v>60052.6</v>
+        <v>24527.68</v>
       </c>
     </row>
     <row r="218">
@@ -5359,7 +5359,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="E218">
-        <v>67616.5</v>
+        <v>62099.3</v>
       </c>
     </row>
     <row r="219">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="E219">
-        <v>17922.7</v>
+        <v>80712</v>
       </c>
     </row>
     <row r="220">
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="E220">
-        <v>6405.5</v>
+        <v>21757</v>
       </c>
     </row>
     <row r="221">
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="E221">
-        <v>35177</v>
+        <v>732175.4690032501</v>
       </c>
     </row>
     <row r="222">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="E222">
-        <v>85533.39999999999</v>
+        <v>18031</v>
       </c>
     </row>
     <row r="223">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="E223">
-        <v>26724.24</v>
+        <v>2294.34118</v>
       </c>
     </row>
     <row r="224">
@@ -5497,7 +5497,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="E224">
-        <v>37199</v>
+        <v>328577</v>
       </c>
     </row>
     <row r="225">
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         </is>
       </c>
       <c r="E225">
-        <v>2679.042</v>
+        <v>63087.3</v>
       </c>
     </row>
     <row r="226">
@@ -5543,7 +5543,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="E226">
-        <v>50716.57</v>
+        <v>192638.93</v>
       </c>
     </row>
     <row r="227">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="E227">
-        <v>21372.72</v>
+        <v>178081</v>
       </c>
     </row>
     <row r="228">
@@ -5589,7 +5589,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="E228">
-        <v>92887</v>
+        <v>21297.9</v>
       </c>
     </row>
     <row r="229">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="E229">
-        <v>58684.4</v>
+        <v>57764.3</v>
       </c>
     </row>
     <row r="230">
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="E230">
-        <v>26996.8</v>
+        <v>95144</v>
       </c>
     </row>
     <row r="231">
@@ -5658,7 +5658,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E231">
-        <v>7401.11</v>
+        <v>24440.6</v>
       </c>
     </row>
     <row r="232">
@@ -5681,7 +5681,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>2015</v>
+        <v>2055</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="E232">
-        <v>54187.16</v>
+        <v>896328.9340017129</v>
       </c>
     </row>
     <row r="233">
@@ -5704,7 +5704,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="E233">
-        <v>46124.3</v>
+        <v>12112.9</v>
       </c>
     </row>
     <row r="234">
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         </is>
       </c>
       <c r="E234">
-        <v>21987.453585</v>
+        <v>1182.473774</v>
       </c>
     </row>
     <row r="235">
@@ -5750,7 +5750,7 @@
         </is>
       </c>
       <c r="B235">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="E235">
-        <v>28115.1</v>
+        <v>329772</v>
       </c>
     </row>
     <row r="236">
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="E236">
-        <v>2535.385</v>
+        <v>74564.89999999999</v>
       </c>
     </row>
     <row r="237">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="E237">
-        <v>98385.54700000001</v>
+        <v>228136.21</v>
       </c>
     </row>
     <row r="238">
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="E238">
-        <v>9116.969999999999</v>
+        <v>203438</v>
       </c>
     </row>
     <row r="239">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="E239">
-        <v>56767.5</v>
+        <v>18820.74</v>
       </c>
     </row>
     <row r="240">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="E240">
-        <v>34858.4</v>
+        <v>54304.60000000001</v>
       </c>
     </row>
     <row r="241">
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         </is>
       </c>
       <c r="E241">
-        <v>19830.8</v>
+        <v>109198</v>
       </c>
     </row>
     <row r="242">
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5924,7 +5924,7 @@
         </is>
       </c>
       <c r="E242">
-        <v>8521.620000000001</v>
+        <v>27164.6</v>
       </c>
     </row>
     <row r="243">
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         </is>
       </c>
       <c r="E243">
-        <v>131954.86102739</v>
+        <v>1070744.995003742</v>
       </c>
     </row>
     <row r="244">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="E244">
-        <v>114732</v>
+        <v>8590.48</v>
       </c>
     </row>
     <row r="245">
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         </is>
       </c>
       <c r="E245">
-        <v>20948.859422</v>
+        <v>663.0469920000001</v>
       </c>
     </row>
     <row r="246">
@@ -6003,7 +6003,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="E246">
-        <v>46238.6</v>
+        <v>320581</v>
       </c>
     </row>
     <row r="247">
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
         </is>
       </c>
       <c r="E247">
-        <v>6093.31</v>
+        <v>84867.8</v>
       </c>
     </row>
     <row r="248">
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="E248">
-        <v>84235.5395</v>
+        <v>247826.05</v>
       </c>
     </row>
     <row r="249">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="E249">
-        <v>50506.54</v>
+        <v>230136</v>
       </c>
     </row>
     <row r="250">
@@ -6095,7 +6095,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="E250">
-        <v>47264</v>
+        <v>16995.65</v>
       </c>
     </row>
     <row r="251">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="E251">
-        <v>66852.92</v>
+        <v>51824.1</v>
       </c>
     </row>
     <row r="252">
@@ -6141,7 +6141,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         </is>
       </c>
       <c r="E252">
-        <v>33519.9</v>
+        <v>124102</v>
       </c>
     </row>
     <row r="253">
@@ -6164,7 +6164,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E253">
-        <v>10312</v>
+        <v>29779.5</v>
       </c>
     </row>
     <row r="254">
@@ -6187,7 +6187,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>2025</v>
+        <v>2065</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="E254">
-        <v>151500.3911089693</v>
+        <v>1240648.997009415</v>
       </c>
     </row>
     <row r="255">
@@ -6210,7 +6210,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         </is>
       </c>
       <c r="E255">
-        <v>131468</v>
+        <v>6549.88</v>
       </c>
     </row>
     <row r="256">
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E256">
-        <v>26097.041312</v>
+        <v>413.0187857</v>
       </c>
     </row>
     <row r="257">
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         </is>
       </c>
       <c r="E257">
-        <v>85388.5</v>
+        <v>311704</v>
       </c>
     </row>
     <row r="258">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="E258">
-        <v>10799.25</v>
+        <v>93649</v>
       </c>
     </row>
     <row r="259">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         </is>
       </c>
       <c r="E259">
-        <v>63588.5774</v>
+        <v>245214.31</v>
       </c>
     </row>
     <row r="260">
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="E260">
-        <v>69178.2</v>
+        <v>251288</v>
       </c>
     </row>
     <row r="261">
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -6361,7 +6361,7 @@
         </is>
       </c>
       <c r="E261">
-        <v>41908.1</v>
+        <v>15646.69</v>
       </c>
     </row>
     <row r="262">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="E262">
-        <v>72668.46000000001</v>
+        <v>50167.7</v>
       </c>
     </row>
     <row r="263">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="E263">
-        <v>41564.3</v>
+        <v>135523</v>
       </c>
     </row>
     <row r="264">
@@ -6417,7 +6417,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="E264">
-        <v>12317.6</v>
+        <v>32227.6</v>
       </c>
     </row>
     <row r="265">
@@ -6440,7 +6440,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>2030</v>
+        <v>2070</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -6453,2031 +6453,7 @@
         </is>
       </c>
       <c r="E265">
-        <v>221606.7870539083</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B266">
-        <v>2035</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E266">
-        <v>102393</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B267">
-        <v>2035</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E267">
-        <v>26840.582185</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B268">
-        <v>2035</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E268">
-        <v>128952</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B269">
-        <v>2035</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E269">
-        <v>18399.8</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B270">
-        <v>2035</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E270">
-        <v>69645.9066</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B271">
-        <v>2035</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E271">
-        <v>82307.60000000001</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B272">
-        <v>2035</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E272">
-        <v>38005.8</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B273">
-        <v>2035</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E273">
-        <v>73775.7</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B274">
-        <v>2035</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E274">
-        <v>48228.7</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B275">
-        <v>2035</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E275">
-        <v>14509.4</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B276">
-        <v>2035</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E276">
-        <v>324411.5807079944</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B277">
-        <v>2040</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E277">
-        <v>69918.39999999999</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B278">
-        <v>2040</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E278">
-        <v>18850.9263951</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B279">
-        <v>2040</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E279">
-        <v>185540</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B280">
-        <v>2040</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E280">
-        <v>27920.24</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B281">
-        <v>2040</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E281">
-        <v>88578.181</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B282">
-        <v>2040</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E282">
-        <v>98233.89999999999</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B283">
-        <v>2040</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E283">
-        <v>33350.3</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B284">
-        <v>2040</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E284">
-        <v>71558.2</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B285">
-        <v>2040</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E285">
-        <v>55452.1</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B286">
-        <v>2040</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E286">
-        <v>16808.9</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B287">
-        <v>2040</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E287">
-        <v>449406.5141142532</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B288">
-        <v>2045</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E288">
-        <v>45509.3</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B289">
-        <v>2045</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E289">
-        <v>10040.90946</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B290">
-        <v>2045</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E290">
-        <v>249236</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B291">
-        <v>2045</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E291">
-        <v>39156.7</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B292">
-        <v>2045</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E292">
-        <v>110778.19</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B293">
-        <v>2045</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E293">
-        <v>120500</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B294">
-        <v>2045</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E294">
-        <v>28740.1</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B295">
-        <v>2045</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E295">
-        <v>67315.5</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B296">
-        <v>2045</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E296">
-        <v>65702.60000000001</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B297">
-        <v>2045</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E297">
-        <v>19200.4</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B298">
-        <v>2045</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E298">
-        <v>587747.7823240244</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B299">
-        <v>2050</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E299">
-        <v>29343.2</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B300">
-        <v>2050</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E300">
-        <v>4771.6338</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B301">
-        <v>2050</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E301">
-        <v>299905</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B302">
-        <v>2050</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E302">
-        <v>51236.2</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B303">
-        <v>2050</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E303">
-        <v>150161.17</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B304">
-        <v>2050</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E304">
-        <v>144166</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B305">
-        <v>2050</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E305">
-        <v>24527.68</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B306">
-        <v>2050</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E306">
-        <v>62099.1</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B307">
-        <v>2050</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E307">
-        <v>77140.5</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B308">
-        <v>2050</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E308">
-        <v>21757.6</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B309">
-        <v>2050</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E309">
-        <v>744509.2860023417</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B310">
-        <v>2055</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E310">
-        <v>18030.9</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B311">
-        <v>2055</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E311">
-        <v>2294.3402</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B312">
-        <v>2055</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E312">
-        <v>328577</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B313">
-        <v>2055</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E313">
-        <v>63088.4</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B314">
-        <v>2055</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E314">
-        <v>192639.27</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B315">
-        <v>2055</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E315">
-        <v>170980</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B316">
-        <v>2055</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E316">
-        <v>21297.9</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B317">
-        <v>2055</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E317">
-        <v>57764.3</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B318">
-        <v>2055</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E318">
-        <v>91357.89999999999</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B319">
-        <v>2055</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E319">
-        <v>24441.1</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B320">
-        <v>2055</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E320">
-        <v>909482.579000946</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B321">
-        <v>2060</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E321">
-        <v>12112.9</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B322">
-        <v>2060</v>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E322">
-        <v>1182.473815</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B323">
-        <v>2060</v>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E323">
-        <v>329771</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B324">
-        <v>2060</v>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E324">
-        <v>74572</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B325">
-        <v>2060</v>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E325">
-        <v>228136.67</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B326">
-        <v>2060</v>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E326">
-        <v>196133</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B327">
-        <v>2060</v>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E327">
-        <v>18820.74</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B328">
-        <v>2060</v>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E328">
-        <v>54304.7</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B329">
-        <v>2060</v>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E329">
-        <v>105332</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B330">
-        <v>2060</v>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E330">
-        <v>27168.1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B331">
-        <v>2060</v>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E331">
-        <v>1084343.686002217</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B332">
-        <v>2065</v>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E332">
-        <v>8590.48</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B333">
-        <v>2065</v>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E333">
-        <v>663.046735</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B334">
-        <v>2065</v>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E334">
-        <v>320580</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B335">
-        <v>2065</v>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E335">
-        <v>84881.2</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B336">
-        <v>2065</v>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E336">
-        <v>247826.8</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B337">
-        <v>2065</v>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E337">
-        <v>222902</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B338">
-        <v>2065</v>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E338">
-        <v>16995.66</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B339">
-        <v>2065</v>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E339">
-        <v>51824.1</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B340">
-        <v>2065</v>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E340">
-        <v>120321</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B341">
-        <v>2065</v>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E341">
-        <v>29786.5</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B342">
-        <v>2065</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E342">
-        <v>1254118.211006085</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B343">
-        <v>2070</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>2W</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E343">
-        <v>6549.87</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B344">
-        <v>2070</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>3W</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E344">
-        <v>413.0190672</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B345">
-        <v>2070</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>4W</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E345">
-        <v>311704</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B346">
-        <v>2070</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Aviation</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E346">
-        <v>93648.5</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B347">
-        <v>2070</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E347">
-        <v>245214.72</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B348">
-        <v>2070</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>Freight Rail</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E348">
-        <v>244458</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B349">
-        <v>2070</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>NMT</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E349">
-        <v>15646.69</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B350">
-        <v>2070</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>Rail</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>Passenger</t>
-        </is>
-      </c>
-      <c r="E350">
-        <v>50167.7</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B351">
-        <v>2070</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>Ship Domestic</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E351">
-        <v>131834</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B352">
-        <v>2070</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>Ship International</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E352">
-        <v>32227.3</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="B353">
-        <v>2070</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>Truck</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="E353">
-        <v>1422900.226016796</v>
+        <v>1409986.239024128</v>
       </c>
     </row>
   </sheetData>
